--- a/Jízdní řády/4 - Směr Litvínov - ROZPRACOVANO.xlsx
+++ b/Jízdní řády/4 - Směr Litvínov - ROZPRACOVANO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD Desktop\Jízdní řády\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD-Most---Litv-nov_WEB-version\Jízdní řády\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9A71C-A04C-4FBB-ADC3-19089BBBE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEFCD7-7F26-4619-9CF0-924247E1A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="110" windowWidth="29780" windowHeight="16140" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26980" yWindow="2260" windowWidth="26370" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Most, Dopravní podnik" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="2">
+  <si>
+    <t>Hodiny</t>
+  </si>
+  <si>
+    <t>Minuty</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,266 +369,3149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245CD12F-54DB-45DD-A254-8869F30E7EC1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78683BB0-5618-4705-B0A2-9A298B9478C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97D7D1F-B535-4FE6-936B-7FA135F01631}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777357D-6088-4480-95F4-ED63F266E670}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989B6AF3-C729-4810-B071-8FD3931B958F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EB7E2A-BCA3-462B-B664-E86EAAA0F0B0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD83D0B3-B144-4589-BB97-EFBC7C2C594C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF7D4E2-AD65-45CB-994B-2736A1285679}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D2D099-63F4-4D1C-9F68-5628D886AB36}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291667E3-EC60-48C3-9F75-0DEFFAF3E65F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907ACF3-A8AD-47A0-81FF-FE9C6B0F61F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08248D5-C762-4B01-9DD2-1A234C65FA8E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3ED91E-D11B-4F1B-A67F-54E608E8B54A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD38C06C-FB62-4A4E-B686-C925957467DC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E22C8C6-4607-4761-BD89-AEE53DC820AF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F9485E-20A5-4E1E-A58A-CC4C1459A23E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1879831D-B946-46FA-97C2-00D42907E83E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677279A2-B5CC-4B87-9B53-3D51BDB33A58}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F107B235-2994-48E4-A77B-F53EDA3061F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955C46DE-676B-4068-8219-4969DAD71BB0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5AA17A-E732-4B4A-94B8-EC3EACE7E0AB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Jízdní řády/4 - Směr Litvínov - ROZPRACOVANO.xlsx
+++ b/Jízdní řády/4 - Směr Litvínov - ROZPRACOVANO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD Desktop\Jízdní řády\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD-Most---Litv-nov_WEB-version\Jízdní řády\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9A71C-A04C-4FBB-ADC3-19089BBBE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9BA012-0BA3-4EF3-9C10-CAA4F0FFCDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="110" windowWidth="29780" windowHeight="16140" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26980" yWindow="2260" windowWidth="26370" windowHeight="15350" tabRatio="715" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Most, Dopravní podnik" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
+  <si>
+    <t>Hodiny</t>
+  </si>
+  <si>
+    <t>Minuty</t>
+  </si>
+  <si>
+    <t>24, 44, 59</t>
+  </si>
+  <si>
+    <t>14, 29, 44, 59</t>
+  </si>
+  <si>
+    <t>14, 32, 47</t>
+  </si>
+  <si>
+    <t>02, 19, 32</t>
+  </si>
+  <si>
+    <t>02, 32</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,266 +390,3213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245CD12F-54DB-45DD-A254-8869F30E7EC1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78683BB0-5618-4705-B0A2-9A298B9478C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97D7D1F-B535-4FE6-936B-7FA135F01631}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777357D-6088-4480-95F4-ED63F266E670}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989B6AF3-C729-4810-B071-8FD3931B958F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EB7E2A-BCA3-462B-B664-E86EAAA0F0B0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD83D0B3-B144-4589-BB97-EFBC7C2C594C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF7D4E2-AD65-45CB-994B-2736A1285679}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D2D099-63F4-4D1C-9F68-5628D886AB36}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291667E3-EC60-48C3-9F75-0DEFFAF3E65F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907ACF3-A8AD-47A0-81FF-FE9C6B0F61F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08248D5-C762-4B01-9DD2-1A234C65FA8E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3ED91E-D11B-4F1B-A67F-54E608E8B54A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD38C06C-FB62-4A4E-B686-C925957467DC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E22C8C6-4607-4761-BD89-AEE53DC820AF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F9485E-20A5-4E1E-A58A-CC4C1459A23E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1879831D-B946-46FA-97C2-00D42907E83E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677279A2-B5CC-4B87-9B53-3D51BDB33A58}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F107B235-2994-48E4-A77B-F53EDA3061F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955C46DE-676B-4068-8219-4969DAD71BB0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5AA17A-E732-4B4A-94B8-EC3EACE7E0AB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>